--- a/simulation_data/iterative_algorithm/i_error_level_8_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_8_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.01924312115241</v>
+        <v>90.04369772375554</v>
       </c>
       <c r="D2" t="n">
-        <v>10.11536375751034</v>
+        <v>9.023150242540009</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.20118574671257</v>
+        <v>88.06938931413885</v>
       </c>
       <c r="D3" t="n">
-        <v>9.363105637287719</v>
+        <v>9.866802214548702</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.57701335470925</v>
+        <v>88.8765621524394</v>
       </c>
       <c r="D4" t="n">
-        <v>10.08050492396727</v>
+        <v>8.794270652057564</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.08905638083239</v>
+        <v>86.20396249338444</v>
       </c>
       <c r="D5" t="n">
-        <v>8.786670569779142</v>
+        <v>10.25920715797719</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.71867987500731</v>
+        <v>85.54986882842132</v>
       </c>
       <c r="D6" t="n">
-        <v>9.669702791036402</v>
+        <v>9.017683940622373</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.34948855307239</v>
+        <v>86.96497051622684</v>
       </c>
       <c r="D7" t="n">
-        <v>9.424007818353255</v>
+        <v>7.876000092643309</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.41073994514049</v>
+        <v>82.28483120432551</v>
       </c>
       <c r="D8" t="n">
-        <v>8.113444744566257</v>
+        <v>9.001494490839258</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.47929803955959</v>
+        <v>83.26742648514275</v>
       </c>
       <c r="D9" t="n">
-        <v>10.22105204486501</v>
+        <v>8.865698399743863</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.83680737187275</v>
+        <v>81.97638536377252</v>
       </c>
       <c r="D10" t="n">
-        <v>9.713773844451932</v>
+        <v>8.984563249635894</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.46116449561904</v>
+        <v>79.73657995073712</v>
       </c>
       <c r="D11" t="n">
-        <v>10.10149837240203</v>
+        <v>9.809663967824601</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.85586680646944</v>
+        <v>79.00947101358723</v>
       </c>
       <c r="D12" t="n">
-        <v>9.769165147316418</v>
+        <v>8.095534711411258</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.99948569004133</v>
+        <v>80.76593208960391</v>
       </c>
       <c r="D13" t="n">
-        <v>10.48593523592317</v>
+        <v>8.804271402917207</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.94115356175634</v>
+        <v>76.78625348997143</v>
       </c>
       <c r="D14" t="n">
-        <v>9.728771001527344</v>
+        <v>7.979168948584726</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.94313134301257</v>
+        <v>75.18168913324793</v>
       </c>
       <c r="D15" t="n">
-        <v>9.117714362439562</v>
+        <v>9.792242015523717</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.44891439221087</v>
+        <v>76.06380418622415</v>
       </c>
       <c r="D16" t="n">
-        <v>8.909554322791289</v>
+        <v>9.506110755015003</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.90348495582526</v>
+        <v>73.19747793278184</v>
       </c>
       <c r="D17" t="n">
-        <v>9.822825722378349</v>
+        <v>9.640444064980089</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.9119959157798</v>
+        <v>74.49142122671654</v>
       </c>
       <c r="D18" t="n">
-        <v>8.551645247086483</v>
+        <v>10.2560626004008</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.12151862082969</v>
+        <v>72.89839463276746</v>
       </c>
       <c r="D19" t="n">
-        <v>9.162221580878812</v>
+        <v>8.031562327330551</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.471045512976</v>
+        <v>71.88074889935083</v>
       </c>
       <c r="D20" t="n">
-        <v>10.24636139346216</v>
+        <v>8.832115150553479</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.87502474138654</v>
+        <v>72.7620000053717</v>
       </c>
       <c r="D21" t="n">
-        <v>8.900860308398574</v>
+        <v>8.978012135869433</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.1407976097766</v>
+        <v>71.26944076960918</v>
       </c>
       <c r="D22" t="n">
-        <v>9.634537440728939</v>
+        <v>9.545198040229032</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.69927652222484</v>
+        <v>68.38301133790198</v>
       </c>
       <c r="D23" t="n">
-        <v>10.40944901776402</v>
+        <v>9.349986452319936</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.40474311770502</v>
+        <v>68.57516781183206</v>
       </c>
       <c r="D24" t="n">
-        <v>9.488701100310665</v>
+        <v>9.891135382541174</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.1567727724947</v>
+        <v>67.21408571447479</v>
       </c>
       <c r="D25" t="n">
-        <v>9.322685801451783</v>
+        <v>8.468702029756361</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.65259549536796</v>
+        <v>65.99135213649367</v>
       </c>
       <c r="D26" t="n">
-        <v>8.509860927417586</v>
+        <v>8.455565312089346</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.65022929738574</v>
+        <v>66.29803553377987</v>
       </c>
       <c r="D27" t="n">
-        <v>10.60920405931976</v>
+        <v>8.302562008655331</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.97705451607909</v>
+        <v>64.05079415313901</v>
       </c>
       <c r="D28" t="n">
-        <v>8.707074557618053</v>
+        <v>8.649057491972197</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.61102026112228</v>
+        <v>62.45299015166064</v>
       </c>
       <c r="D29" t="n">
-        <v>9.143810171706516</v>
+        <v>9.366722884545004</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.65489361872126</v>
+        <v>62.70068225582209</v>
       </c>
       <c r="D30" t="n">
-        <v>9.088300572292026</v>
+        <v>9.9252559704001</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.90438827181438</v>
+        <v>61.4229877600182</v>
       </c>
       <c r="D31" t="n">
-        <v>9.315761210003108</v>
+        <v>9.248291775121997</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.48579008842292</v>
+        <v>59.45307927146482</v>
       </c>
       <c r="D32" t="n">
-        <v>9.734523314955462</v>
+        <v>9.87795749981718</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.92783469310937</v>
+        <v>60.18297858903897</v>
       </c>
       <c r="D33" t="n">
-        <v>10.29900147357044</v>
+        <v>9.746112842634824</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.08723791697567</v>
+        <v>58.13110385389994</v>
       </c>
       <c r="D34" t="n">
-        <v>9.652060654757399</v>
+        <v>11.61111192445221</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.01837257598638</v>
+        <v>56.50349166580214</v>
       </c>
       <c r="D35" t="n">
-        <v>8.295395764545399</v>
+        <v>8.768471037438387</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.45310378783324</v>
+        <v>54.89272917776817</v>
       </c>
       <c r="D36" t="n">
-        <v>10.14218316785517</v>
+        <v>8.477521763475529</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.03054954724543</v>
+        <v>54.61461210799959</v>
       </c>
       <c r="D37" t="n">
-        <v>9.432463873637396</v>
+        <v>9.877345028333769</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.98836459285115</v>
+        <v>54.05190278266289</v>
       </c>
       <c r="D38" t="n">
-        <v>9.670739603405822</v>
+        <v>9.182409631582182</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.96826410559684</v>
+        <v>53.09498991081641</v>
       </c>
       <c r="D39" t="n">
-        <v>10.2148449425534</v>
+        <v>8.795630373321323</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.01197008980859</v>
+        <v>51.46293197403357</v>
       </c>
       <c r="D40" t="n">
-        <v>9.409170193069109</v>
+        <v>9.227300355764912</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.14305448791038</v>
+        <v>49.58632249615702</v>
       </c>
       <c r="D41" t="n">
-        <v>9.871772813235399</v>
+        <v>9.873194127858405</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.06733610067063</v>
+        <v>50.00262470259332</v>
       </c>
       <c r="D42" t="n">
-        <v>8.523576437163051</v>
+        <v>9.2323720389507</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.92328409756741</v>
+        <v>48.94140580120581</v>
       </c>
       <c r="D43" t="n">
-        <v>8.971133827869965</v>
+        <v>9.191548702443221</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.75068012110686</v>
+        <v>47.37590007899158</v>
       </c>
       <c r="D44" t="n">
-        <v>9.750659684181297</v>
+        <v>10.65228375184851</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.46105016494325</v>
+        <v>46.91790537348524</v>
       </c>
       <c r="D45" t="n">
-        <v>8.908732577379849</v>
+        <v>9.784536158939513</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.96332540692139</v>
+        <v>46.70167673019333</v>
       </c>
       <c r="D46" t="n">
-        <v>9.425986017572312</v>
+        <v>10.15516047126373</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.26513133429567</v>
+        <v>43.83192522840557</v>
       </c>
       <c r="D47" t="n">
-        <v>10.32932095155126</v>
+        <v>9.813322472210766</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.69983240838306</v>
+        <v>43.86499308663734</v>
       </c>
       <c r="D48" t="n">
-        <v>9.517143761666761</v>
+        <v>9.117896211485647</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.51453977647648</v>
+        <v>43.54789078901258</v>
       </c>
       <c r="D49" t="n">
-        <v>9.770803084937452</v>
+        <v>9.613526336670921</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.75897057180447</v>
+        <v>41.50101088720081</v>
       </c>
       <c r="D50" t="n">
-        <v>10.72692971298061</v>
+        <v>10.40461726580921</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>38.50661209960938</v>
+        <v>40.95529987801038</v>
       </c>
       <c r="D51" t="n">
-        <v>8.731629039892688</v>
+        <v>9.357757404854453</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>42.55999616704924</v>
+        <v>39.15415483481831</v>
       </c>
       <c r="D52" t="n">
-        <v>10.14560183824866</v>
+        <v>10.0967235149264</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.87429179456942</v>
+        <v>38.10035276446057</v>
       </c>
       <c r="D53" t="n">
-        <v>10.57988889386398</v>
+        <v>9.813450820085396</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.57228161890048</v>
+        <v>36.36130586272862</v>
       </c>
       <c r="D54" t="n">
-        <v>11.01217742404801</v>
+        <v>8.700489503273415</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.00829803936406</v>
+        <v>35.66262107401992</v>
       </c>
       <c r="D55" t="n">
-        <v>8.859732958812657</v>
+        <v>9.065463870889417</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.45644958534479</v>
+        <v>35.5719544122438</v>
       </c>
       <c r="D56" t="n">
-        <v>10.62419038348575</v>
+        <v>8.871873249970387</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.67999113922612</v>
+        <v>33.62291890419966</v>
       </c>
       <c r="D57" t="n">
-        <v>10.25998058943497</v>
+        <v>10.05360215011961</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.94055607771699</v>
+        <v>33.28932342150284</v>
       </c>
       <c r="D58" t="n">
-        <v>10.2526448932226</v>
+        <v>9.080721341824999</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.15475636640211</v>
+        <v>33.52978610920048</v>
       </c>
       <c r="D59" t="n">
-        <v>9.337292965848864</v>
+        <v>8.44763639104916</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.48011416777807</v>
+        <v>31.37553869194793</v>
       </c>
       <c r="D60" t="n">
-        <v>9.704506401331784</v>
+        <v>8.804129642197832</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.43012655675394</v>
+        <v>31.63394790748352</v>
       </c>
       <c r="D61" t="n">
-        <v>10.02386213871874</v>
+        <v>10.99435983976349</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.65361034846731</v>
+        <v>31.18311861158808</v>
       </c>
       <c r="D62" t="n">
-        <v>9.542077580397267</v>
+        <v>8.602361685210262</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.21031660310173</v>
+        <v>29.47199192822767</v>
       </c>
       <c r="D63" t="n">
-        <v>7.919234172294045</v>
+        <v>9.265189522767383</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.67492658243993</v>
+        <v>27.55006693420822</v>
       </c>
       <c r="D64" t="n">
-        <v>10.99781835118336</v>
+        <v>9.964310013977693</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.2705984734575</v>
+        <v>28.33358767205172</v>
       </c>
       <c r="D65" t="n">
-        <v>8.877504548962937</v>
+        <v>9.581546468867675</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.61325907303986</v>
+        <v>25.76720544793473</v>
       </c>
       <c r="D66" t="n">
-        <v>9.656731343335052</v>
+        <v>10.09781251970246</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.45042346872011</v>
+        <v>24.78197417744302</v>
       </c>
       <c r="D67" t="n">
-        <v>11.10354014072283</v>
+        <v>9.459937505927551</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.55886028579087</v>
+        <v>22.84047746307837</v>
       </c>
       <c r="D68" t="n">
-        <v>11.05932324143849</v>
+        <v>8.826616202816391</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.75137902743437</v>
+        <v>23.79126168142922</v>
       </c>
       <c r="D69" t="n">
-        <v>9.825484437558218</v>
+        <v>10.62182234212652</v>
       </c>
     </row>
   </sheetData>
